--- a/biology/Zoologie/Bécasse_du_Bukidnon/Bécasse_du_Bukidnon.xlsx
+++ b/biology/Zoologie/Bécasse_du_Bukidnon/Bécasse_du_Bukidnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolopax bukidnonensis
 La Bécasse du Bukidnon (Scolopax bukidnonensis) est une espèce d'oiseaux endémique des Philippines appartenant au groupe des limicoles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des spécimens de cette espèce avaient déjà été collectés dans les années 1960 mais rapportés à la bécasse d'Eurasie (Scolopax rusticola). Cet oiseau a été observé et identifié comme nouvelle espèce par des ornithologues pour la première fois lors d'une visite ornithologique en 1993, sur le mont Kitanglad, dans la province de Bukidnon à Mindanao.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au centre et au nord de l'île de Luçon et sur quatre massifs montagneux de l'île de Mindanao (Philippines)
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,6 +619,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -608,7 +628,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,7 +646,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce ne semble pas immédiatement menacée dans la mesure où elle se cantonne dans des forêts difficilement pénétrables et assez pauvres en bois précieux.
 </t>
@@ -639,7 +661,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B%C3%A9casse_du_Bukidnon</t>
+          <t>Bécasse_du_Bukidnon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -657,7 +679,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Kennedy, Fisher, Harrap, Diesmos &amp; Manamtam : A new species of woodcock (Aves: Scolopacidae) from the Philippines and a re-evaluation of other Asian/Papuasian woodcock. Forktail 17 p. 1–12. Publication originale</t>
         </is>
